--- a/stock_historical_data/1wk/HINDZINC.NS.xlsx
+++ b/stock_historical_data/1wk/HINDZINC.NS.xlsx
@@ -60887,7 +60887,9 @@
       <c r="P1140" t="n">
         <v>0</v>
       </c>
-      <c r="Q1140" t="inlineStr"/>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDZINC.NS.xlsx
+++ b/stock_historical_data/1wk/HINDZINC.NS.xlsx
@@ -64365,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDZINC.NS.xlsx
+++ b/stock_historical_data/1wk/HINDZINC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1141"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="R227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -13238,7 +13238,7 @@
         <v>1</v>
       </c>
       <c r="R228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="R229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -13462,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="R232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -14470,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="R250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -14750,7 +14750,7 @@
         <v>2</v>
       </c>
       <c r="R255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="R256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -15254,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="R264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -15646,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="R271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -16038,7 +16038,7 @@
         <v>2</v>
       </c>
       <c r="R278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -16318,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="R283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -17718,7 +17718,7 @@
         <v>2</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -18110,7 +18110,7 @@
         <v>1</v>
       </c>
       <c r="R315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -18334,7 +18334,7 @@
         <v>2</v>
       </c>
       <c r="R319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -19622,7 +19622,7 @@
         <v>2</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -20014,7 +20014,7 @@
         <v>1</v>
       </c>
       <c r="R349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
       <c r="R366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -22254,7 +22254,7 @@
         <v>2</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -22590,7 +22590,7 @@
         <v>2</v>
       </c>
       <c r="R395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -22758,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="R398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -24270,7 +24270,7 @@
         <v>2</v>
       </c>
       <c r="R425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -24998,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="R438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -25110,7 +25110,7 @@
         <v>1</v>
       </c>
       <c r="R440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -25502,7 +25502,7 @@
         <v>2</v>
       </c>
       <c r="R447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="R451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -26286,7 +26286,7 @@
         <v>2</v>
       </c>
       <c r="R461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -26398,7 +26398,7 @@
         <v>1</v>
       </c>
       <c r="R463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -27070,7 +27070,7 @@
         <v>2</v>
       </c>
       <c r="R475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -27462,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="R482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -27630,7 +27630,7 @@
         <v>1</v>
       </c>
       <c r="R485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -27854,7 +27854,7 @@
         <v>2</v>
       </c>
       <c r="R489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -27966,7 +27966,7 @@
         <v>1</v>
       </c>
       <c r="R491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -28750,7 +28750,7 @@
         <v>2</v>
       </c>
       <c r="R505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -29030,7 +29030,7 @@
         <v>1</v>
       </c>
       <c r="R510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -29422,7 +29422,7 @@
         <v>1</v>
       </c>
       <c r="R517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -29814,7 +29814,7 @@
         <v>2</v>
       </c>
       <c r="R524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -30318,7 +30318,7 @@
         <v>2</v>
       </c>
       <c r="R533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -31158,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="R548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -31942,7 +31942,7 @@
         <v>2</v>
       </c>
       <c r="R562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -32950,7 +32950,7 @@
         <v>1</v>
       </c>
       <c r="R580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -33678,7 +33678,7 @@
         <v>2</v>
       </c>
       <c r="R593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -33846,7 +33846,7 @@
         <v>1</v>
       </c>
       <c r="R596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -34630,7 +34630,7 @@
         <v>1</v>
       </c>
       <c r="R610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -35190,7 +35190,7 @@
         <v>1</v>
       </c>
       <c r="R620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -35470,7 +35470,7 @@
         <v>2</v>
       </c>
       <c r="R625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -35694,7 +35694,7 @@
         <v>1</v>
       </c>
       <c r="R629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -36198,7 +36198,7 @@
         <v>2</v>
       </c>
       <c r="R638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639">
@@ -38102,7 +38102,7 @@
         <v>2</v>
       </c>
       <c r="R672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673">
@@ -38998,7 +38998,7 @@
         <v>1</v>
       </c>
       <c r="R688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -39446,7 +39446,7 @@
         <v>2</v>
       </c>
       <c r="R696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697">
@@ -40174,7 +40174,7 @@
         <v>1</v>
       </c>
       <c r="R709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -40734,7 +40734,7 @@
         <v>2</v>
       </c>
       <c r="R719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720">
@@ -41182,7 +41182,7 @@
         <v>1</v>
       </c>
       <c r="R727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -42078,7 +42078,7 @@
         <v>1</v>
       </c>
       <c r="R743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -42526,7 +42526,7 @@
         <v>1</v>
       </c>
       <c r="R751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -43198,7 +43198,7 @@
         <v>2</v>
       </c>
       <c r="R763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764">
@@ -43646,7 +43646,7 @@
         <v>2</v>
       </c>
       <c r="R771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -44094,7 +44094,7 @@
         <v>1</v>
       </c>
       <c r="R779" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -45662,7 +45662,7 @@
         <v>1</v>
       </c>
       <c r="R807" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808">
@@ -46166,7 +46166,7 @@
         <v>1</v>
       </c>
       <c r="R816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -46334,7 +46334,7 @@
         <v>2</v>
       </c>
       <c r="R819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -46502,7 +46502,7 @@
         <v>1</v>
       </c>
       <c r="R822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -46726,7 +46726,7 @@
         <v>2</v>
       </c>
       <c r="R826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827">
@@ -47510,7 +47510,7 @@
         <v>1</v>
       </c>
       <c r="R840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -48014,7 +48014,7 @@
         <v>2</v>
       </c>
       <c r="R849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850">
@@ -48686,7 +48686,7 @@
         <v>2</v>
       </c>
       <c r="R861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -49582,7 +49582,7 @@
         <v>2</v>
       </c>
       <c r="R877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878">
@@ -50646,7 +50646,7 @@
         <v>1</v>
       </c>
       <c r="R896" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -51206,7 +51206,7 @@
         <v>2</v>
       </c>
       <c r="R906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="R912" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -52270,7 +52270,7 @@
         <v>1</v>
       </c>
       <c r="R925" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926">
@@ -54006,7 +54006,7 @@
         <v>1</v>
       </c>
       <c r="R956" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957">
@@ -54062,7 +54062,7 @@
         <v>2</v>
       </c>
       <c r="R957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958">
@@ -54678,7 +54678,7 @@
         <v>2</v>
       </c>
       <c r="R968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -55126,7 +55126,7 @@
         <v>2</v>
       </c>
       <c r="R976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977">
@@ -55350,7 +55350,7 @@
         <v>1</v>
       </c>
       <c r="R980" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981">
@@ -55742,7 +55742,7 @@
         <v>2</v>
       </c>
       <c r="R987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988">
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="R1001" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002">
@@ -56974,7 +56974,7 @@
         <v>2</v>
       </c>
       <c r="R1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -57422,7 +57422,7 @@
         <v>2</v>
       </c>
       <c r="R1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -59046,7 +59046,7 @@
         <v>1</v>
       </c>
       <c r="R1046" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -59382,7 +59382,7 @@
         <v>2</v>
       </c>
       <c r="R1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053">
@@ -59718,7 +59718,7 @@
         <v>1</v>
       </c>
       <c r="R1058" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -60614,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="R1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -61790,7 +61790,7 @@
         <v>1</v>
       </c>
       <c r="R1095" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -61958,7 +61958,7 @@
         <v>2</v>
       </c>
       <c r="R1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099">
@@ -62462,7 +62462,7 @@
         <v>2</v>
       </c>
       <c r="R1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108">
@@ -62854,7 +62854,7 @@
         <v>1</v>
       </c>
       <c r="R1114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115">
@@ -63974,7 +63974,7 @@
         <v>1</v>
       </c>
       <c r="R1134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135">
@@ -64189,7 +64189,7 @@
         <v>21</v>
       </c>
       <c r="O1138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1138" t="n">
         <v>0</v>
@@ -64368,6 +64368,114 @@
       <c r="R1141" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>661.9000244140625</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>684</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>630.2999877929688</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>664.5499877929688</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>664.5499877929688</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>6766039</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>662.0999755859375</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>679.4500122070312</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>646.25</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>669.6500244140625</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>669.6500244140625</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>3906419</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDZINC.NS.xlsx
+++ b/stock_historical_data/1wk/HINDZINC.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="R227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -13238,7 +13238,7 @@
         <v>1</v>
       </c>
       <c r="R228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="R229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -13462,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="R232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -14470,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="R250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -14750,7 +14750,7 @@
         <v>2</v>
       </c>
       <c r="R255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="R256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -15254,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="R264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -15646,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="R271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -16038,7 +16038,7 @@
         <v>2</v>
       </c>
       <c r="R278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -16318,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="R283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -17718,7 +17718,7 @@
         <v>2</v>
       </c>
       <c r="R308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -18110,7 +18110,7 @@
         <v>1</v>
       </c>
       <c r="R315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -18334,7 +18334,7 @@
         <v>2</v>
       </c>
       <c r="R319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -19622,7 +19622,7 @@
         <v>2</v>
       </c>
       <c r="R342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -20014,7 +20014,7 @@
         <v>1</v>
       </c>
       <c r="R349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
       <c r="R366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -22254,7 +22254,7 @@
         <v>2</v>
       </c>
       <c r="R389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -22590,7 +22590,7 @@
         <v>2</v>
       </c>
       <c r="R395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -22758,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="R398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="R413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -24270,7 +24270,7 @@
         <v>2</v>
       </c>
       <c r="R425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -24998,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="R438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -25110,7 +25110,7 @@
         <v>1</v>
       </c>
       <c r="R440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -25502,7 +25502,7 @@
         <v>2</v>
       </c>
       <c r="R447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="R451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -26286,7 +26286,7 @@
         <v>2</v>
       </c>
       <c r="R461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -26398,7 +26398,7 @@
         <v>1</v>
       </c>
       <c r="R463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -27070,7 +27070,7 @@
         <v>2</v>
       </c>
       <c r="R475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -27462,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="R482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -27630,7 +27630,7 @@
         <v>1</v>
       </c>
       <c r="R485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -27854,7 +27854,7 @@
         <v>2</v>
       </c>
       <c r="R489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -27966,7 +27966,7 @@
         <v>1</v>
       </c>
       <c r="R491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -28750,7 +28750,7 @@
         <v>2</v>
       </c>
       <c r="R505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -29030,7 +29030,7 @@
         <v>1</v>
       </c>
       <c r="R510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -29422,7 +29422,7 @@
         <v>1</v>
       </c>
       <c r="R517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -29814,7 +29814,7 @@
         <v>2</v>
       </c>
       <c r="R524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -30318,7 +30318,7 @@
         <v>2</v>
       </c>
       <c r="R533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -31158,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="R548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -31942,7 +31942,7 @@
         <v>2</v>
       </c>
       <c r="R562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -32950,7 +32950,7 @@
         <v>1</v>
       </c>
       <c r="R580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -33678,7 +33678,7 @@
         <v>2</v>
       </c>
       <c r="R593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -33846,7 +33846,7 @@
         <v>1</v>
       </c>
       <c r="R596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -34630,7 +34630,7 @@
         <v>1</v>
       </c>
       <c r="R610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -35190,7 +35190,7 @@
         <v>1</v>
       </c>
       <c r="R620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -35470,7 +35470,7 @@
         <v>2</v>
       </c>
       <c r="R625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -35694,7 +35694,7 @@
         <v>1</v>
       </c>
       <c r="R629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -36198,7 +36198,7 @@
         <v>2</v>
       </c>
       <c r="R638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -38102,7 +38102,7 @@
         <v>2</v>
       </c>
       <c r="R672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -38998,7 +38998,7 @@
         <v>1</v>
       </c>
       <c r="R688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -39446,7 +39446,7 @@
         <v>2</v>
       </c>
       <c r="R696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -40174,7 +40174,7 @@
         <v>1</v>
       </c>
       <c r="R709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -40734,7 +40734,7 @@
         <v>2</v>
       </c>
       <c r="R719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -41182,7 +41182,7 @@
         <v>1</v>
       </c>
       <c r="R727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -42078,7 +42078,7 @@
         <v>1</v>
       </c>
       <c r="R743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -42526,7 +42526,7 @@
         <v>1</v>
       </c>
       <c r="R751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -43198,7 +43198,7 @@
         <v>2</v>
       </c>
       <c r="R763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -43646,7 +43646,7 @@
         <v>2</v>
       </c>
       <c r="R771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -44094,7 +44094,7 @@
         <v>1</v>
       </c>
       <c r="R779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -45662,7 +45662,7 @@
         <v>1</v>
       </c>
       <c r="R807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -46166,7 +46166,7 @@
         <v>1</v>
       </c>
       <c r="R816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -46334,7 +46334,7 @@
         <v>2</v>
       </c>
       <c r="R819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -46502,7 +46502,7 @@
         <v>1</v>
       </c>
       <c r="R822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -46726,7 +46726,7 @@
         <v>2</v>
       </c>
       <c r="R826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827">
@@ -47510,7 +47510,7 @@
         <v>1</v>
       </c>
       <c r="R840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -48014,7 +48014,7 @@
         <v>2</v>
       </c>
       <c r="R849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -48686,7 +48686,7 @@
         <v>2</v>
       </c>
       <c r="R861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862">
@@ -49582,7 +49582,7 @@
         <v>2</v>
       </c>
       <c r="R877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -50646,7 +50646,7 @@
         <v>1</v>
       </c>
       <c r="R896" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897">
@@ -51206,7 +51206,7 @@
         <v>2</v>
       </c>
       <c r="R906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="R912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -52270,7 +52270,7 @@
         <v>1</v>
       </c>
       <c r="R925" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -54006,7 +54006,7 @@
         <v>1</v>
       </c>
       <c r="R956" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -54062,7 +54062,7 @@
         <v>2</v>
       </c>
       <c r="R957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -54678,7 +54678,7 @@
         <v>2</v>
       </c>
       <c r="R968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969">
@@ -55126,7 +55126,7 @@
         <v>2</v>
       </c>
       <c r="R976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977">
@@ -55350,7 +55350,7 @@
         <v>1</v>
       </c>
       <c r="R980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981">
@@ -55742,7 +55742,7 @@
         <v>2</v>
       </c>
       <c r="R987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="R1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -56974,7 +56974,7 @@
         <v>2</v>
       </c>
       <c r="R1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010">
@@ -57422,7 +57422,7 @@
         <v>2</v>
       </c>
       <c r="R1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -59046,7 +59046,7 @@
         <v>1</v>
       </c>
       <c r="R1046" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047">
@@ -59382,7 +59382,7 @@
         <v>2</v>
       </c>
       <c r="R1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053">
@@ -59718,7 +59718,7 @@
         <v>1</v>
       </c>
       <c r="R1058" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059">
@@ -60614,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="R1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075">
@@ -61790,7 +61790,7 @@
         <v>1</v>
       </c>
       <c r="R1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096">
@@ -61958,7 +61958,7 @@
         <v>2</v>
       </c>
       <c r="R1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -62462,7 +62462,7 @@
         <v>2</v>
       </c>
       <c r="R1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108">
@@ -62854,7 +62854,7 @@
         <v>1</v>
       </c>
       <c r="R1114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115">
@@ -63974,7 +63974,7 @@
         <v>1</v>
       </c>
       <c r="R1134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,1829 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>646.0871680445769</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>671.1592074015306</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>626.8009839238432</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>668.4109497070312</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>5603040</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>673.0878513183097</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>691.4097269272609</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>627.76531691722</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>640.9281616210938</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>3637077</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>644.1585767067588</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>645.9907878179423</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>612.3363715700477</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>618.845458984375</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>1880179</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>609.4434459468206</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>622.8955717545</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>577.6212406995974</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>581.9606323242188</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>2987601</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>589.1929384251899</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>639.481688218098</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>586.4928843576058</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>628.5367431640625</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>3404685</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>603.7057816671828</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>613.3006702769886</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>567.0138272372159</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>572.7996826171875</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>3922570</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>578.5373327513386</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>605.4897874285847</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>497.6317650295833</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>501.3443908691406</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>16650900</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>472.511518930818</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>501.2961256739999</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>470.631104175965</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>495.4620666503906</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>68665812</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>499.5121720495429</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>518.4126090708743</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>474.8258503251246</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>482.8778381347656</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>25221508</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>502</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>502.4500122070312</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>481.0499877929688</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>486.8500061035156</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>10636935</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>484.75</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>504</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>475.3999938964844</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>496.6000061035156</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>8933384</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>501</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>508.3999938964844</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>478.5499877929688</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>500.7000122070312</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>9024379</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>501</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>525.4000244140625</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>498.25</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>523.0499877929688</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>17299182</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>525</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>533.5499877929688</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>509.8500061035156</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>517.25</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>13256519</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>524</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>524</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>490.5</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>504.1499938964844</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>5783120</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>506.7000122070312</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>523.5499877929688</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>494</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>506.5</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>8466023</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>519.3499755859375</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>549</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>510.0499877929688</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>20794448</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>515.5</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>575.4000244140625</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>512</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>558.25</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>13021663</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>559</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>565</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>505.0499877929688</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>506.25</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>28086925</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>505.8999938964844</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>512.25</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>484</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>495.3500061035156</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>11549425</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>503.6000061035156</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>503.8999938964844</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>483.2000122070312</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>489.25</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>6811821</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>498</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>505.8999938964844</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>491.6000061035156</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>504.6000061035156</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>5737215</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>502.0499877929688</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>515.4000244140625</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>499.1000061035156</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>510</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>6734876</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>510</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>516.4000244140625</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>492.1000061035156</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>500.3500061035156</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>7605308</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>500.3500061035156</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>503.9500122070312</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>466.2999877929688</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>468.7999877929688</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>4450489</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>471</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>473.5</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>451.7999877929688</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>454.7000122070312</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>3158352</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>454</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>429.6000061035156</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>469.1499938964844</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>8214901</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>473.2000122070312</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>473.2000122070312</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>427.2000122070312</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>6258112</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>461.8999938964844</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>414.7000122070312</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>456.8500061035156</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>5374691</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>464.2000122070312</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>480.5</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>456.6000061035156</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>5120096</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>461.7000122070312</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>461.9500122070312</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>430</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>446</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>7286253</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>445</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>469.2000122070312</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>426.5499877929688</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>440.3500061035156</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>9882774</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>441.6000061035156</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>443.8999938964844</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>408.2999877929688</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>416.5499877929688</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>8009695</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>411.5499877929688</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>430.2000122070312</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>402.5499877929688</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>426.6499938964844</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>5360529</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>421</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>425.9500122070312</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>390</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>390.7999877929688</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>4404428</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDZINC.NS.xlsx
+++ b/stock_historical_data/1wk/HINDZINC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1178"/>
+  <dimension ref="A1:R1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64531,7 +64531,9 @@
       <c r="Q1144" t="n">
         <v>2</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64583,7 +64585,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64635,7 +64639,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64687,7 +64693,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64739,7 +64747,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64791,7 +64801,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64843,7 +64855,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64895,7 +64909,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64947,7 +64963,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -64999,7 +65017,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65051,7 +65071,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65103,7 +65125,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65155,7 +65179,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65207,7 +65233,9 @@
       <c r="Q1157" t="n">
         <v>1</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65259,7 +65287,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65311,7 +65341,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65363,7 +65395,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65415,7 +65449,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65467,7 +65503,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65519,7 +65557,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65571,7 +65611,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65623,7 +65665,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65675,7 +65719,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65727,7 +65773,9 @@
       <c r="Q1167" t="n">
         <v>2</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65779,7 +65827,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65831,7 +65881,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65883,7 +65935,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65935,7 +65989,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -65987,7 +66043,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66039,7 +66097,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66091,7 +66151,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66143,7 +66205,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66195,7 +66259,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66247,7 +66313,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66299,7 +66367,477 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>392</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>378.1499938964844</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>429.3500061035156</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>10220291</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>429.0499877929688</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>436.8999938964844</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>430</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>6200005</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>430.5499877929688</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>477.7999877929688</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>430.5499877929688</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>446.3999938964844</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>15315703</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>448.6499938964844</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>440.1000061035156</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>461.8999938964844</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>11771072</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>461.8999938964844</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>468.4500122070312</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>424</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>426.9500122070312</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>7595724</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>390.2000122070312</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>419.8999938964844</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>388.5499877929688</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>411.0499877929688</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>6944611</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>411.0499877929688</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>444.8999938964844</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>411.0499877929688</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>5580658</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>440</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>467.8999938964844</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>445</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>12435253</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>452</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>459.5</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>438</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>439.2000122070312</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>6433723</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
